--- a/Manage/upload_file/早签少量数据.xlsx
+++ b/Manage/upload_file/早签少量数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="11790"/>
+    <workbookView windowWidth="19725" windowHeight="6135"/>
   </bookViews>
   <sheets>
     <sheet name="考勤异常表" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="27">
   <si>
     <t>考勤异常表</t>
   </si>
@@ -80,6 +80,24 @@
   </si>
   <si>
     <t>2021/3/12</t>
+  </si>
+  <si>
+    <t>17211135</t>
+  </si>
+  <si>
+    <t>周濛杰</t>
+  </si>
+  <si>
+    <t>17211140</t>
+  </si>
+  <si>
+    <t>邹林峰</t>
+  </si>
+  <si>
+    <t>17240139</t>
+  </si>
+  <si>
+    <t>汪晨旭</t>
   </si>
 </sst>
 </file>
@@ -87,10 +105,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -141,6 +159,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -148,120 +187,84 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,10 +279,25 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -298,19 +316,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,7 +436,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,145 +472,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,21 +548,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -561,26 +564,53 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,29 +630,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,151 +649,151 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2">
@@ -1137,13 +1155,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E11" sqref="E11:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" ht="31.5" spans="1:12">
       <c r="A1" s="1" t="s">
@@ -1307,8 +1325,211 @@
       </c>
       <c r="L6" s="7"/>
     </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="24">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="E3:F3"/>
@@ -1319,6 +1540,20 @@
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="I6:K6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="I13:K13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
